--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_46.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_46.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_9</t>
+          <t>model_1_46_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999431702020501</v>
+        <v>0.9370345266508293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8278440367750897</v>
+        <v>0.7467541324228074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.821375985837826</v>
+        <v>0.6470443253474977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997733477543809</v>
+        <v>0.9420146467089922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002365555511419297</v>
+        <v>0.2620954637946317</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151207718790296</v>
+        <v>1.693456282578685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6389277414426671</v>
+        <v>1.262501982686108</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009516658535026092</v>
+        <v>0.4545130491659182</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02588136208857018</v>
+        <v>1.256953902701616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0153803625165966</v>
+        <v>0.5119525991677665</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003637107068791</v>
+        <v>0.9142597809713421</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01562258785151107</v>
+        <v>0.5200153408398132</v>
       </c>
       <c r="N2" t="n">
-        <v>146.6986549781298</v>
+        <v>36.67809295191542</v>
       </c>
       <c r="O2" t="n">
-        <v>288.0338275213462</v>
+        <v>73.64267654014124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_8</t>
+          <t>model_1_46_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999416612660162</v>
+        <v>0.9370842891081463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8278188206214999</v>
+        <v>0.7464697258431625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8213972000886718</v>
+        <v>0.6464660963872338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997693373974527</v>
+        <v>0.9414217076383299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002428365376669279</v>
+        <v>0.2618883262375496</v>
       </c>
       <c r="G3" t="n">
-        <v>1.151376339325461</v>
+        <v>1.695358110686342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6388518592974644</v>
+        <v>1.26457027414933</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000968504511943944</v>
+        <v>0.4591607494847175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0264178286367588</v>
+        <v>1.252016603579996</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01558321332931459</v>
+        <v>0.5117502576819573</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00373367897496</v>
+        <v>0.9143275426153482</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01582863336175295</v>
+        <v>0.5198098126778696</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6462440509514</v>
+        <v>36.67967420363971</v>
       </c>
       <c r="O3" t="n">
-        <v>287.9814165941678</v>
+        <v>73.64425779186553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_7</t>
+          <t>model_1_46_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999407928351409</v>
+        <v>0.93710619258723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8278008629694835</v>
+        <v>0.746332743749581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8214509075963821</v>
+        <v>0.6461802299709275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997659171082218</v>
+        <v>0.9411272768116554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002464514043694801</v>
+        <v>0.26179715242111</v>
       </c>
       <c r="G4" t="n">
-        <v>1.151496422227182</v>
+        <v>1.696274110576866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6386597506565248</v>
+        <v>1.26559280174497</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009828655982909969</v>
+        <v>0.4614686194071208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02657220159617977</v>
+        <v>1.249597022213258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01569877079167283</v>
+        <v>0.511661169545931</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003789258550981</v>
+        <v>0.9143573686294196</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01594601073862826</v>
+        <v>0.5197193214927566</v>
       </c>
       <c r="N4" t="n">
-        <v>146.616691452868</v>
+        <v>36.68037060498041</v>
       </c>
       <c r="O4" t="n">
-        <v>287.9518639960844</v>
+        <v>73.64495419320623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_6</t>
+          <t>model_1_46_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999410075551902</v>
+        <v>0.9372165591737779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8277788081249098</v>
+        <v>0.7452297056263919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8214242760478356</v>
+        <v>0.6439672824995523</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997677401618533</v>
+        <v>0.9388213895922519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002455576264321087</v>
+        <v>0.2613377485581663</v>
       </c>
       <c r="G5" t="n">
-        <v>1.1516439030744</v>
+        <v>1.703650131585655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6387550101614897</v>
+        <v>1.273508386536013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009752109735358938</v>
+        <v>0.4795431118718642</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02680683106389695</v>
+        <v>1.230805935012623</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0156702784414352</v>
+        <v>0.5112120387453393</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003775516467826</v>
+        <v>0.9145076550451443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01591706966235628</v>
+        <v>0.5192631173310216</v>
       </c>
       <c r="N5" t="n">
-        <v>146.6239578147807</v>
+        <v>36.68388330489915</v>
       </c>
       <c r="O5" t="n">
-        <v>287.9591303579971</v>
+        <v>73.64846689312498</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999406306911721</v>
+        <v>0.9372229797750052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8276780061662168</v>
+        <v>0.7450954289074332</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8211714781634746</v>
+        <v>0.6437000051735343</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997809103054154</v>
+        <v>0.9385396825824311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002471263329686523</v>
+        <v>0.2613110226341477</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15231796623633</v>
+        <v>1.70454804062362</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6396592535357856</v>
+        <v>1.274464422033549</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009199122674516131</v>
+        <v>0.4817512472843103</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0272615114427629</v>
+        <v>1.228525060838288</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01572025231886092</v>
+        <v>0.5111858983130773</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003799635764985</v>
+        <v>0.9145163979914965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01596783057839591</v>
+        <v>0.5192365652130823</v>
       </c>
       <c r="N6" t="n">
-        <v>146.611221765167</v>
+        <v>36.6840878470354</v>
       </c>
       <c r="O6" t="n">
-        <v>287.9463943083834</v>
+        <v>73.64867143526122</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999408689390625</v>
+        <v>0.9372278418205388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8276711197506353</v>
+        <v>0.7449617981059591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.821125164747885</v>
+        <v>0.6434343099941461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997813928186454</v>
+        <v>0.938259344510619</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00024613461976428</v>
+        <v>0.2612907842398134</v>
       </c>
       <c r="G7" t="n">
-        <v>1.152364015729032</v>
+        <v>1.70544163040839</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6398249139379434</v>
+        <v>1.275414798284329</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000917886294297937</v>
+        <v>0.4839486523975839</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02729063223067612</v>
+        <v>1.226258864753063</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01568867807574239</v>
+        <v>0.5111661023970716</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003784387899998</v>
+        <v>0.9145230186492442</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01593575907251093</v>
+        <v>0.5192164575311882</v>
       </c>
       <c r="N7" t="n">
-        <v>146.6192638737922</v>
+        <v>36.68424275192917</v>
       </c>
       <c r="O7" t="n">
-        <v>287.9544364170087</v>
+        <v>73.64882634015498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_3</t>
+          <t>model_1_46_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999422559579748</v>
+        <v>0.9372333269218046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.82766813624612</v>
+        <v>0.7446976929698987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8209703588416983</v>
+        <v>0.6429094107495047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997925878704801</v>
+        <v>0.9377032359127851</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002403611165130248</v>
+        <v>0.2612679523593594</v>
       </c>
       <c r="G8" t="n">
-        <v>1.152383966437464</v>
+        <v>1.707207702669318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6403786456882108</v>
+        <v>1.277292332447005</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008708805894563043</v>
+        <v>0.4883076603215388</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02694529286010078</v>
+        <v>1.221779964545308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01550358398929179</v>
+        <v>0.5111437687768084</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003695618689612</v>
+        <v>0.9145304877233084</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01574774993922494</v>
+        <v>0.5191937721787313</v>
       </c>
       <c r="N8" t="n">
-        <v>146.666736226679</v>
+        <v>36.68441752179804</v>
       </c>
       <c r="O8" t="n">
-        <v>288.0019087698954</v>
+        <v>73.64900111002386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_1</t>
+          <t>model_1_46_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999415618396064</v>
+        <v>0.9372031118798149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8275704935761914</v>
+        <v>0.7437766365359393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8208265783917269</v>
+        <v>0.6408866103336658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998039668534993</v>
+        <v>0.9355393301219345</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002432504027521207</v>
+        <v>0.2613937232782874</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15303690342088</v>
+        <v>1.71336681128428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6408929400208891</v>
+        <v>1.284527772245753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008231025956520924</v>
+        <v>0.5052692439506216</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02830447001098228</v>
+        <v>1.204456605498184</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01559648687211709</v>
+        <v>0.5112667828817822</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003740042265193</v>
+        <v>0.9144893438363436</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01584211594958592</v>
+        <v>0.5193187236328894</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6428383623736</v>
+        <v>36.68345498004518</v>
       </c>
       <c r="O9" t="n">
-        <v>287.97801090559</v>
+        <v>73.64803856827101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_2</t>
+          <t>model_1_46_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999412983765867</v>
+        <v>0.9371839582952839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8275524980287814</v>
+        <v>0.7435294472704543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8208126351945194</v>
+        <v>0.6403995820652574</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998023328646352</v>
+        <v>0.935013747316034</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002443470746052568</v>
+        <v>0.2614734505852376</v>
       </c>
       <c r="G10" t="n">
-        <v>1.153157239729273</v>
+        <v>1.71501976704078</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6409428140288274</v>
+        <v>1.286269844122329</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008299633765931438</v>
+        <v>0.5093889781617782</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02843506638551287</v>
+        <v>1.200273924312423</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01563160499133908</v>
+        <v>0.5113447472940713</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003756903898449</v>
+        <v>0.9144632623595355</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01587778714408042</v>
+        <v>0.5193979159067362</v>
       </c>
       <c r="N10" t="n">
-        <v>146.6338418129387</v>
+        <v>36.68284505606024</v>
       </c>
       <c r="O10" t="n">
-        <v>287.9690143561551</v>
+        <v>73.64742864428607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_0</t>
+          <t>model_1_46_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999392505212041</v>
+        <v>0.9371728189970349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8273731593915348</v>
+        <v>0.7434065852001663</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8209087403047405</v>
+        <v>0.6401590462622637</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998070297386135</v>
+        <v>0.9347533210213614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002528713273063498</v>
+        <v>0.2615198182115833</v>
       </c>
       <c r="G11" t="n">
-        <v>1.154356478022319</v>
+        <v>1.715841346270523</v>
       </c>
       <c r="H11" t="n">
-        <v>0.640599051622061</v>
+        <v>1.287130226742569</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000810242175193946</v>
+        <v>0.5114303065758801</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02566757664881623</v>
+        <v>1.19821074381787</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01590192841470335</v>
+        <v>0.511390084193645</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003887966642935</v>
+        <v>0.9144480939534092</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01615236789113839</v>
+        <v>0.519443966817158</v>
       </c>
       <c r="N11" t="n">
-        <v>146.5652595726666</v>
+        <v>36.6824904233777</v>
       </c>
       <c r="O11" t="n">
-        <v>287.900432115883</v>
+        <v>73.64707401160352</v>
       </c>
     </row>
   </sheetData>
